--- a/Team-Data/2014-15/1-10-2014-15.xlsx
+++ b/Team-Data/2014-15/1-10-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>5.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -771,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>4</v>
@@ -798,13 +865,13 @@
         <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -816,7 +883,7 @@
         <v>9</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.343</v>
+        <v>0.353</v>
       </c>
       <c r="H3" t="n">
         <v>48.7</v>
@@ -866,7 +933,7 @@
         <v>40.1</v>
       </c>
       <c r="J3" t="n">
-        <v>88.5</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.453</v>
@@ -875,19 +942,19 @@
         <v>7.4</v>
       </c>
       <c r="M3" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
         <v>0.322</v>
       </c>
       <c r="O3" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P3" t="n">
         <v>19.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.751</v>
+        <v>0.756</v>
       </c>
       <c r="R3" t="n">
         <v>10.5</v>
@@ -899,19 +966,19 @@
         <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="V3" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X3" t="n">
         <v>4.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z3" t="n">
         <v>21.7</v>
@@ -920,22 +987,22 @@
         <v>18.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.4</v>
+        <v>102.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.5</v>
+        <v>-1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>4</v>
@@ -965,22 +1032,22 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>9</v>
@@ -998,10 +1065,10 @@
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>0.432</v>
+        <v>0.444</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
@@ -1048,40 +1115,40 @@
         <v>36.1</v>
       </c>
       <c r="J4" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L4" t="n">
         <v>6.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.323</v>
+        <v>0.324</v>
       </c>
       <c r="O4" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>22.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.747</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T4" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
         <v>14.7</v>
@@ -1090,43 +1157,43 @@
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z4" t="n">
         <v>20.1</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>25</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1135,7 +1202,7 @@
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="n">
         <v>25</v>
@@ -1147,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1156,28 +1223,28 @@
         <v>13</v>
       </c>
       <c r="AT4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU4" t="n">
+        <v>20</v>
+      </c>
+      <c r="AV4" t="n">
         <v>19</v>
       </c>
-      <c r="AV4" t="n">
-        <v>20</v>
-      </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
         <v>12</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>24</v>
       </c>
       <c r="G5" t="n">
-        <v>0.385</v>
+        <v>0.368</v>
       </c>
       <c r="H5" t="n">
         <v>48.8</v>
@@ -1230,76 +1297,76 @@
         <v>36.4</v>
       </c>
       <c r="J5" t="n">
-        <v>84.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.431</v>
+        <v>0.429</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
-        <v>0.313</v>
+        <v>0.31</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R5" t="n">
         <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U5" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V5" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X5" t="n">
         <v>4.9</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>96</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-3.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AF5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG5" t="n">
         <v>22</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1311,19 +1378,19 @@
         <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP5" t="n">
         <v>16</v>
@@ -1332,13 +1399,13 @@
         <v>22</v>
       </c>
       <c r="AR5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU5" t="n">
         <v>25</v>
@@ -1353,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1362,10 +1429,10 @@
         <v>8</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.676</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1412,19 +1479,19 @@
         <v>36.6</v>
       </c>
       <c r="J6" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.359</v>
       </c>
       <c r="O6" t="n">
         <v>21.2</v>
@@ -1433,19 +1500,19 @@
         <v>27.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.78</v>
+        <v>0.778</v>
       </c>
       <c r="R6" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T6" t="n">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
         <v>14.6</v>
@@ -1457,7 +1524,7 @@
         <v>6.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z6" t="n">
         <v>18.6</v>
@@ -1466,16 +1533,16 @@
         <v>22.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.7</v>
+        <v>101.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1484,10 +1551,10 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
@@ -1499,10 +1566,10 @@
         <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1511,13 +1578,13 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS6" t="n">
         <v>5</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>6</v>
       </c>
       <c r="AT6" t="n">
         <v>3</v>
@@ -1526,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1544,7 +1611,7 @@
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>0.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>14</v>
@@ -1663,16 +1730,16 @@
         <v>13</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
         <v>18</v>
@@ -1684,13 +1751,13 @@
         <v>12</v>
       </c>
       <c r="AN7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ7" t="n">
         <v>12</v>
@@ -1729,7 +1796,7 @@
         <v>17</v>
       </c>
       <c r="BC7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -1776,67 +1843,67 @@
         <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L8" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="M8" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O8" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P8" t="n">
         <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.763</v>
       </c>
       <c r="R8" t="n">
         <v>10.9</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.2</v>
       </c>
       <c r="U8" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
         <v>12.2</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AB8" t="n">
         <v>109.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK8" t="n">
         <v>2</v>
@@ -1863,28 +1930,28 @@
         <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN8" t="n">
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
         <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1902,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-1.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -2036,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL9" t="n">
         <v>12</v>
@@ -2051,16 +2118,16 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
         <v>8</v>
@@ -2081,7 +2148,7 @@
         <v>13</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
@@ -2090,10 +2157,10 @@
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
         <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.351</v>
+        <v>0.333</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.426</v>
       </c>
       <c r="L10" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="N10" t="n">
         <v>0.345</v>
       </c>
       <c r="O10" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P10" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="S10" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T10" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V10" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2185,34 +2252,34 @@
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB10" t="n">
         <v>97.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF10" t="n">
         <v>23</v>
       </c>
-      <c r="AF10" t="n">
-        <v>22</v>
-      </c>
       <c r="AG10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI10" t="n">
         <v>19</v>
@@ -2230,13 +2297,13 @@
         <v>8</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>26</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
       </c>
       <c r="AU10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2260,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2418,10 +2485,10 @@
         <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR11" t="n">
         <v>23</v>
@@ -2445,13 +2512,13 @@
         <v>2</v>
       </c>
       <c r="AY11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2571,7 @@
         <v>36.2</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.435</v>
@@ -2513,61 +2580,61 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.707</v>
+        <v>0.702</v>
       </c>
       <c r="R12" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S12" t="n">
-        <v>31.4</v>
+        <v>31.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>44.2</v>
       </c>
       <c r="U12" t="n">
         <v>20.6</v>
       </c>
       <c r="V12" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>101.3</v>
+        <v>101.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>24</v>
@@ -2585,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2597,10 +2664,10 @@
         <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2609,10 +2676,10 @@
         <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
         <v>23</v>
@@ -2627,16 +2694,16 @@
         <v>15</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -2668,58 +2735,58 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>0.385</v>
+        <v>0.395</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
         <v>84.09999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="L13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M13" t="n">
         <v>20.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O13" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="P13" t="n">
-        <v>21.8</v>
+        <v>21.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.754</v>
+        <v>0.756</v>
       </c>
       <c r="R13" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="S13" t="n">
         <v>34.2</v>
       </c>
       <c r="T13" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V13" t="n">
         <v>14.3</v>
@@ -2731,22 +2798,22 @@
         <v>4.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
@@ -2761,34 +2828,34 @@
         <v>19</v>
       </c>
       <c r="AI13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK13" t="n">
         <v>27</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>28</v>
-      </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>22</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2797,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
         <v>11</v>
@@ -2809,19 +2876,19 @@
         <v>18</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.676</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
         <v>10.3</v>
       </c>
       <c r="M14" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.385</v>
+        <v>0.384</v>
       </c>
       <c r="O14" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="P14" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R14" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U14" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="V14" t="n">
         <v>12.5</v>
@@ -2916,22 +2983,22 @@
         <v>2.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE14" t="n">
         <v>9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>9</v>
@@ -2943,13 +3010,13 @@
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>2</v>
@@ -2961,13 +3028,13 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP14" t="n">
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>28</v>
@@ -2976,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="AT14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU14" t="n">
         <v>5</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.333</v>
+        <v>0.324</v>
       </c>
       <c r="H15" t="n">
         <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="J15" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.44</v>
+        <v>0.438</v>
       </c>
       <c r="L15" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O15" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="P15" t="n">
-        <v>24.8</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S15" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T15" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>12.5</v>
@@ -3095,94 +3162,94 @@
         <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF15" t="n">
         <v>26</v>
       </c>
-      <c r="AF15" t="n">
-        <v>22</v>
-      </c>
       <c r="AG15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
         <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
       </c>
       <c r="AS15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>4</v>
       </c>
       <c r="AW15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX15" t="n">
         <v>17</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
@@ -3307,13 +3374,13 @@
         <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3322,7 +3389,7 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>9</v>
@@ -3337,7 +3404,7 @@
         <v>21</v>
       </c>
       <c r="AS16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT16" t="n">
         <v>20</v>
@@ -3355,13 +3422,13 @@
         <v>24</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -3510,10 +3577,10 @@
         <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>14</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC17" t="n">
         <v>25</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -3578,19 +3645,19 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" t="n">
         <v>20</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" t="n">
-        <v>0.513</v>
+        <v>0.526</v>
       </c>
       <c r="H18" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I18" t="n">
         <v>37.8</v>
@@ -3602,43 +3669,43 @@
         <v>0.464</v>
       </c>
       <c r="L18" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="N18" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O18" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
         <v>0.777</v>
       </c>
       <c r="R18" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S18" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V18" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="W18" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y18" t="n">
         <v>4.8</v>
@@ -3650,22 +3717,22 @@
         <v>19.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.5</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>8</v>
@@ -3677,19 +3744,19 @@
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3701,10 +3768,10 @@
         <v>22</v>
       </c>
       <c r="AS18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT18" t="n">
         <v>24</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>26</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3716,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY18" t="n">
         <v>13</v>
@@ -3725,10 +3792,10 @@
         <v>27</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>0.139</v>
+        <v>0.143</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J19" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>14.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.335</v>
+        <v>0.338</v>
       </c>
       <c r="O19" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P19" t="n">
         <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.737</v>
+        <v>0.729</v>
       </c>
       <c r="R19" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="S19" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="T19" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="V19" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W19" t="n">
         <v>9.1</v>
@@ -3823,7 +3890,7 @@
         <v>4.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
         <v>20.3</v>
@@ -3832,13 +3899,13 @@
         <v>22.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3850,7 +3917,7 @@
         <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>16</v>
@@ -3859,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3871,16 +3938,16 @@
         <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3892,13 +3959,13 @@
         <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
         <v>5</v>
       </c>
       <c r="AX19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" t="n">
         <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,88 +4027,88 @@
         <v>38.8</v>
       </c>
       <c r="J20" t="n">
-        <v>84.3</v>
+        <v>84.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.765</v>
+        <v>0.755</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
       </c>
       <c r="V20" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
         <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z20" t="n">
         <v>19.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>101.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ20" t="n">
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4050,25 +4117,25 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO20" t="n">
         <v>18</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AP20" t="n">
         <v>19</v>
       </c>
-      <c r="AP20" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT20" t="n">
         <v>11</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>14</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4077,25 +4144,25 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>6</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="n">
-        <v>0.125</v>
+        <v>0.128</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L21" t="n">
         <v>7.3</v>
       </c>
       <c r="M21" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O21" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="P21" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="T21" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
         <v>15</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
         <v>3.7</v>
@@ -4193,13 +4260,13 @@
         <v>22.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9</v>
+        <v>-8.5</v>
       </c>
       <c r="AD21" t="n">
         <v>1</v>
@@ -4220,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
         <v>21</v>
@@ -4229,22 +4296,22 @@
         <v>16</v>
       </c>
       <c r="AM21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>28</v>
@@ -4256,7 +4323,7 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW21" t="n">
         <v>15</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -4384,16 +4451,16 @@
         <v>0.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
         <v>16</v>
@@ -4402,13 +4469,13 @@
         <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4423,10 +4490,10 @@
         <v>12</v>
       </c>
       <c r="AQ22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4444,19 +4511,19 @@
         <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>14</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -4503,22 +4570,22 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J23" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.368</v>
+        <v>0.374</v>
       </c>
       <c r="O23" t="n">
         <v>13.6</v>
@@ -4527,46 +4594,46 @@
         <v>18.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S23" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T23" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA23" t="n">
         <v>18.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.8</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -4575,13 +4642,13 @@
         <v>27</v>
       </c>
       <c r="AG23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4590,16 +4657,16 @@
         <v>16</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4617,19 +4684,19 @@
         <v>28</v>
       </c>
       <c r="AU23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY23" t="n">
         <v>26</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>18</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>0.194</v>
+        <v>0.171</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
@@ -4694,13 +4761,13 @@
         <v>0.411</v>
       </c>
       <c r="L24" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
         <v>23.8</v>
       </c>
       <c r="N24" t="n">
-        <v>0.299</v>
+        <v>0.294</v>
       </c>
       <c r="O24" t="n">
         <v>16.8</v>
@@ -4709,7 +4776,7 @@
         <v>24.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.681</v>
+        <v>0.68</v>
       </c>
       <c r="R24" t="n">
         <v>11.6</v>
@@ -4718,37 +4785,37 @@
         <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U24" t="n">
         <v>19.9</v>
       </c>
       <c r="V24" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="W24" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="X24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5.7</v>
       </c>
-      <c r="Y24" t="n">
-        <v>5.6</v>
-      </c>
       <c r="Z24" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>-12.5</v>
+        <v>-12.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,19 +4827,19 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
@@ -4784,13 +4851,13 @@
         <v>20</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>25</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
         <v>25</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
@@ -4957,13 +5024,13 @@
         <v>5</v>
       </c>
       <c r="AM25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN25" t="n">
         <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4972,16 +5039,16 @@
         <v>1</v>
       </c>
       <c r="AR25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT25" t="n">
         <v>17</v>
       </c>
-      <c r="AS25" t="n">
-        <v>18</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>18</v>
-      </c>
       <c r="AU25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
         <v>24</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -5034,88 +5101,88 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="n">
         <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.784</v>
+        <v>0.778</v>
       </c>
       <c r="H26" t="n">
         <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J26" t="n">
-        <v>86.7</v>
+        <v>87</v>
       </c>
       <c r="K26" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
         <v>10.2</v>
       </c>
       <c r="M26" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="N26" t="n">
         <v>0.376</v>
       </c>
       <c r="O26" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P26" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R26" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S26" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="T26" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="U26" t="n">
         <v>22.8</v>
       </c>
       <c r="V26" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
@@ -5124,13 +5191,13 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
         <v>6</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>17</v>
@@ -5139,7 +5206,7 @@
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN26" t="n">
         <v>5</v>
@@ -5172,13 +5239,13 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-2</v>
       </c>
       <c r="AD27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG27" t="n">
         <v>19</v>
@@ -5309,13 +5376,13 @@
         <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,10 +5400,10 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>7</v>
@@ -5351,7 +5418,7 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
@@ -5366,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -5413,70 +5480,70 @@
         <v>49.2</v>
       </c>
       <c r="I28" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O28" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P28" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="T28" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.3</v>
+        <v>102.1</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5494,7 +5561,7 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>6</v>
@@ -5512,10 +5579,10 @@
         <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,19 +5591,19 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
         <v>10</v>
@@ -5545,10 +5612,10 @@
         <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>0.694</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,52 +5665,52 @@
         <v>39.2</v>
       </c>
       <c r="J29" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K29" t="n">
         <v>0.46</v>
       </c>
       <c r="L29" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M29" t="n">
-        <v>25.3</v>
+        <v>25.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O29" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="P29" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.784</v>
+        <v>0.785</v>
       </c>
       <c r="R29" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S29" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T29" t="n">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V29" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
         <v>7.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z29" t="n">
         <v>21.8</v>
@@ -5655,19 +5722,19 @@
         <v>107.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>4</v>
       </c>
       <c r="AG29" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH29" t="n">
         <v>9</v>
@@ -5676,10 +5743,10 @@
         <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5688,22 +5755,22 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
@@ -5718,13 +5785,13 @@
         <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY29" t="n">
         <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -5762,52 +5829,52 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" t="n">
         <v>13</v>
       </c>
       <c r="F30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.342</v>
+        <v>0.351</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>78.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M30" t="n">
         <v>20.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.333</v>
+        <v>0.334</v>
       </c>
       <c r="O30" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P30" t="n">
         <v>23.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.748</v>
+        <v>0.744</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T30" t="n">
         <v>42.4</v>
@@ -5816,10 +5883,10 @@
         <v>20.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="W30" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X30" t="n">
         <v>5.8</v>
@@ -5828,16 +5895,16 @@
         <v>4.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA30" t="n">
         <v>19.9</v>
       </c>
       <c r="AB30" t="n">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD30" t="n">
         <v>7</v>
@@ -5846,10 +5913,10 @@
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5867,7 +5934,7 @@
         <v>23</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN30" t="n">
         <v>24</v>
@@ -5879,28 +5946,28 @@
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
         <v>11</v>
@@ -5909,13 +5976,13 @@
         <v>5</v>
       </c>
       <c r="BA30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
@@ -6022,10 +6089,10 @@
         <v>2.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF31" t="n">
         <v>4</v>
@@ -6040,10 +6107,10 @@
         <v>7</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6058,16 +6125,16 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR31" t="n">
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
         <v>15</v>
@@ -6091,7 +6158,7 @@
         <v>19</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-10-2014-15</t>
+          <t>2015-01-10</t>
         </is>
       </c>
     </row>
